--- a/21130451_Q&A_DatHang_NguyenThiChucNgan.xlsx
+++ b/21130451_Q&A_DatHang_NguyenThiChucNgan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Classwork\Tester\Software_Testing_Group19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACCE443-C266-4270-A58D-C419B70C7E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CD41AC-144D-4FAC-904C-B8B52842532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2688" yWindow="0" windowWidth="19080" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21130451_Q&amp;A_DatHang" sheetId="3" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
